--- a/classfiers/nano/elm/nearmiss/nano_elm_rbf_linf_nearmiss_results.xlsx
+++ b/classfiers/nano/elm/nearmiss/nano_elm_rbf_linf_nearmiss_results.xlsx
@@ -468,13 +468,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4799999999999999</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6954887218045113</v>
+        <v>0.682825484764543</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8227513227513228</v>
+        <v>0.8698060941828255</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3200000000000001</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6802631578947369</v>
+        <v>0.736842105263158</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8695652173913044</v>
+        <v>0.6367647058823529</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.35</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8008021390374331</v>
+        <v>0.7852941176470588</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.96</v>
+        <v>0.975</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3493700159489633</v>
+        <v>0.3065325077399381</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4995604395604396</v>
+        <v>0.4611403089663959</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7737741117758616</v>
+        <v>0.7423065015479876</v>
       </c>
     </row>
   </sheetData>
